--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>20200426</v>
+        <v>20200428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>20200426</v>
+        <v>20200428</v>
       </c>
     </row>
   </sheetData>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,10 +642,10 @@
         <v>20</v>
       </c>
       <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -653,13 +653,13 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,10 +678,10 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>24</v>
       </c>
       <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -110,10 +110,10 @@
     <t>WSA</t>
   </si>
   <si>
-    <t>V4</t>
-  </si>
-  <si>
     <t>Additional</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,15 +596,15 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>20200428</v>
+        <v>20200429</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,10 +642,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -653,13 +653,13 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2.2999999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.35</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,6 +647,9 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -659,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -720,9 +723,6 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -443,16 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -484,7 +484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -570,12 +570,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -583,7 +583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -591,7 +591,7 @@
         <v>20200428</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -617,13 +617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -676,29 +676,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,13 +443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -617,11 +617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -681,10 +681,10 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,10 +692,10 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -714,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>10</v>

--- a/Settings/Base/IE_settings.xlsx
+++ b/Settings/Base/IE_settings.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
